--- a/Base de données/DA.xlsx
+++ b/Base de données/DA.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>DA</t>
-  </si>
-  <si>
-    <t>occurrences_DA</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -368,12 +365,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/DA.xlsx
+++ b/Base de données/DA.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,6 +368,311 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1903</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/DA.xlsx
+++ b/Base de données/DA.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -357,10 +357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +683,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -694,6 +696,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Base de données/DA.xlsx
+++ b/Base de données/DA.xlsx
@@ -360,8 +360,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
